--- a/src/main/resources/motiflab/engine/data/analysis/resources/AnalysisTemplate_Benchmark.xlsx
+++ b/src/main/resources/motiflab/engine/data/analysis/resources/AnalysisTemplate_Benchmark.xlsx
@@ -1,32 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MotifLab2\MotifLab\src\main\resources\motiflab\engine\data\analysis\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EA3D6E-273C-4D76-B01B-5FBA7F4FB6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31B56856-E02E-4A3C-8A0D-8CC18F74F1EB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Benchmark" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="Acc_series" localSheetId="0">OFFSET(Sheet1!$I$21,,,COUNTA(Sheet1!$A$21:$A$1000),1)</definedName>
-    <definedName name="ASP_series" localSheetId="0">OFFSET(Sheet1!$G$21,,,COUNTA(Sheet1!$A$21:$A$1000),1)</definedName>
-    <definedName name="CC_series" localSheetId="0">OFFSET(Sheet1!$J$21,,,COUNTA(Sheet1!$A$21:$A$1000),1)</definedName>
-    <definedName name="F_series" localSheetId="0">OFFSET(Sheet1!$H$21,,,COUNTA(Sheet1!$A$21:$A$1000),1)</definedName>
-    <definedName name="NPV_series" localSheetId="0">OFFSET(Sheet1!$E$21,,,COUNTA(Sheet1!$A$21:$A$1000),1)</definedName>
-    <definedName name="PC_series" localSheetId="0">OFFSET(Sheet1!$F$21,,,COUNTA(Sheet1!$A$21:$A$1000),1)</definedName>
-    <definedName name="PPV_series" localSheetId="0">OFFSET(Sheet1!$D$21,,,COUNTA(Sheet1!$A$21:$A$1000),1)</definedName>
-    <definedName name="sASP_series" localSheetId="0">OFFSET(Sheet1!$M$21,,,COUNTA(Sheet1!$A$21:$A$1000),1)</definedName>
-    <definedName name="sF_series" localSheetId="0">OFFSET(Sheet1!$O$21,,,COUNTA(Sheet1!$A$21:$A$1000),1)</definedName>
-    <definedName name="Sn_series" localSheetId="0">OFFSET(Sheet1!$B$21,,,COUNTA(Sheet1!$A$21:$A$1000),1)</definedName>
-    <definedName name="Sp_series" localSheetId="0">OFFSET(Sheet1!$C$21,,,COUNTA(Sheet1!$A$21:$A$1000),1)</definedName>
-    <definedName name="sPC_series" localSheetId="0">OFFSET(Sheet1!$N$21,,,COUNTA(Sheet1!$A$21:$A$1000),1)</definedName>
-    <definedName name="sPPV_series" localSheetId="0">OFFSET(Sheet1!$L$21,,,COUNTA(Sheet1!$A$21:$A$1000),1)</definedName>
-    <definedName name="sSn_series" localSheetId="0">OFFSET(Sheet1!$K$21,,,COUNTA(Sheet1!$A$21:$A$1000),1)</definedName>
-    <definedName name="tracknames" localSheetId="0">OFFSET(Sheet1!$A$21,,,COUNTA(Sheet1!$A$21:$A$1000),1)</definedName>
-  </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -45,16 +50,10 @@
     <t>PPV</t>
   </si>
   <si>
-    <t>NPV</t>
+    <t>ASP</t>
   </si>
   <si>
     <t>PC</t>
-  </si>
-  <si>
-    <t>ASP</t>
-  </si>
-  <si>
-    <t>F</t>
   </si>
   <si>
     <t>Acc</t>
@@ -72,55 +71,57 @@
     <t>sASP</t>
   </si>
   <si>
+    <t>Benchmark Analysis</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>sPC</t>
   </si>
   <si>
     <t>sF</t>
   </si>
   <si>
-    <t>Benchmark analysis against '?'</t>
-  </si>
-  <si>
-    <t>track1</t>
+    <t>Test track</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="25"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="28"/>
       <color theme="1"/>
-      <name val="Arial Unicode MS"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,12 +130,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor theme="1"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -142,49 +161,152 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FF008F96"/>
+      <color rgb="FFFFABAB"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FFFF00FF"/>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nb-NO"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="26"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nb-NO"/>
+              <a:t>Grouped by Track</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -197,7 +319,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$20</c:f>
+              <c:f>Benchmark!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -207,49 +329,50 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill>
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="FF0000"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="DC0000"/>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!tracknames</c:f>
+              <c:f>Benchmark!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>track1</c:v>
+                  <c:v>Test track</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!Sn_series</c:f>
+              <c:f>Benchmark!$B$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.23827569482692007</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-22DC-4265-BC83-632B3E7885AE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$20</c:f>
+              <c:f>Benchmark!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -259,49 +382,50 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill>
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="00FF00"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="00DC00"/>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:srgbClr val="00FF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!tracknames</c:f>
+              <c:f>Benchmark!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>track1</c:v>
+                  <c:v>Test track</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!Sp_series</c:f>
+              <c:f>Benchmark!$C$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.73266191809570513</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-22DC-4265-BC83-632B3E7885AE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$20</c:f>
+              <c:f>Benchmark!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -311,49 +435,50 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill>
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="0000FF"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="0000DC"/>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!tracknames</c:f>
+              <c:f>Benchmark!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>track1</c:v>
+                  <c:v>Test track</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!PPV_series</c:f>
+              <c:f>Benchmark!$D$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.38207845618475167</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-22DC-4265-BC83-632B3E7885AE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$20</c:f>
+              <c:f>Benchmark!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -363,49 +488,50 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill>
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="FFFF00"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="DCDC00"/>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!tracknames</c:f>
+              <c:f>Benchmark!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>track1</c:v>
+                  <c:v>Test track</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!NPV_series</c:f>
+              <c:f>Benchmark!$E$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.58096827291802333</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-22DC-4265-BC83-632B3E7885AE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$20</c:f>
+              <c:f>Benchmark!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -415,49 +541,50 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill>
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="FF00FF"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="DC00DC"/>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:srgbClr val="FF00FF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!tracknames</c:f>
+              <c:f>Benchmark!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>track1</c:v>
+                  <c:v>Test track</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!PC_series</c:f>
+              <c:f>Benchmark!$F$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.17199617865386554</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-22DC-4265-BC83-632B3E7885AE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$20</c:f>
+              <c:f>Benchmark!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -467,49 +594,50 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill>
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="00FFFF"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="00DCDC"/>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:srgbClr val="00FFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!tracknames</c:f>
+              <c:f>Benchmark!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>track1</c:v>
+                  <c:v>Test track</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!ASP_series</c:f>
+              <c:f>Benchmark!$G$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.31017707550583584</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-22DC-4265-BC83-632B3E7885AE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$20</c:f>
+              <c:f>Benchmark!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -519,51 +647,50 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill>
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent6"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!tracknames</c:f>
+              <c:f>Benchmark!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>track1</c:v>
+                  <c:v>Test track</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!F_series</c:f>
+              <c:f>Benchmark!$H$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.29350979429202129</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-22DC-4265-BC83-632B3E7885AE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$20</c:f>
+              <c:f>Benchmark!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -573,53 +700,52 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill>
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="65000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!tracknames</c:f>
+              <c:f>Benchmark!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>track1</c:v>
+                  <c:v>Test track</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!Acc_series</c:f>
+              <c:f>Benchmark!$I$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.53016498316498317</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-22DC-4265-BC83-632B3E7885AE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$20</c:f>
+              <c:f>Benchmark!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -629,52 +755,52 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill>
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="tx1"/>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!tracknames</c:f>
+              <c:f>Benchmark!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>track1</c:v>
+                  <c:v>Test track</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!CC_series</c:f>
+              <c:f>Benchmark!$J$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-3.277118036614235E-2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-22DC-4265-BC83-632B3E7885AE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$20</c:f>
+              <c:f>Benchmark!$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -683,37 +809,51 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFABAB"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!tracknames</c:f>
+              <c:f>Benchmark!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>track1</c:v>
+                  <c:v>Test track</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!sSn_series</c:f>
+              <c:f>Benchmark!$K$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5.3331548176908999E-3</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-22DC-4265-BC83-632B3E7885AE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$20</c:f>
+              <c:f>Benchmark!$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -722,37 +862,54 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!tracknames</c:f>
+              <c:f>Benchmark!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>track1</c:v>
+                  <c:v>Test track</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!sPPV_series</c:f>
+              <c:f>Benchmark!$L$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000028-22DC-4265-BC83-632B3E7885AE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$20</c:f>
+              <c:f>Benchmark!$M$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -761,37 +918,51 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="008F96"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!tracknames</c:f>
+              <c:f>Benchmark!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>track1</c:v>
+                  <c:v>Test track</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!sASP_series</c:f>
+              <c:f>Benchmark!$M$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.50266657740884546</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000029-22DC-4265-BC83-632B3E7885AE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$20</c:f>
+              <c:f>Benchmark!$N$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -800,37 +971,51 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!tracknames</c:f>
+              <c:f>Benchmark!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>track1</c:v>
+                  <c:v>Test track</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!sPC_series</c:f>
+              <c:f>Benchmark!$N$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5.3331548176908999E-3</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002A-22DC-4265-BC83-632B3E7885AE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="13"/>
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$20</c:f>
+              <c:f>Benchmark!$O$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -839,30 +1024,46 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!tracknames</c:f>
+              <c:f>Benchmark!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>track1</c:v>
+                  <c:v>Test track</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!sF_series</c:f>
+              <c:f>Benchmark!$O$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0609726322331476E-2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002B-22DC-4265-BC83-632B3E7885AE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -872,22 +1073,53 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="161970432"/>
-        <c:axId val="161972224"/>
+        <c:gapWidth val="500"/>
+        <c:overlap val="-27"/>
+        <c:axId val="602271728"/>
+        <c:axId val="602272088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="161970432"/>
+        <c:axId val="602271728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161972224"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="602272088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -895,41 +1127,144 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161972224"/>
+        <c:axId val="602272088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161970432"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="602271728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.96260091790202207"/>
+          <c:y val="4.7660305806969852E-2"/>
+          <c:w val="3.1812489919207029E-2"/>
+          <c:h val="0.91459635161263209"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
+        <a:noFill/>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="50000"/>
-              <a:lumOff val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nb-NO"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -938,24 +1273,1567 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nb-NO"/>
+              <a:t>Grouped by Statistic</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Benchmark!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test track</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Benchmark!$B$3:$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Sn</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PPV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NPV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ASP</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Acc</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sSn</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sPPV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sASP</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sPC</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>sF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Benchmark!$B$4:$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B989-44B0-B8A0-9CB630F8BFE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="602271728"/>
+        <c:axId val="602272088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="602271728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="602272088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="602272088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="602271728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.95086723861897415"/>
+          <c:y val="5.2073868464283683E-2"/>
+          <c:w val="4.3542264814339024E-2"/>
+          <c:h val="0.91546819237523369"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nb-NO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>695324</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1054" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="GroupedByTrack">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA3342E-1DCE-A034-9589-86CAC2E445D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="GroupedByStatistic">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AF1C770-DA72-4875-9C7F-B42B9A9C28A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -966,7 +2844,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -986,44 +2864,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1051,14 +2929,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1086,6 +2981,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1097,434 +3009,484 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
+            <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1E60BE-E242-4DF8-918A-0E5715D53862}">
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="15" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="15" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="30.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>0</v>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>1</v>
+      <c r="B4" s="6">
+        <v>0.1</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>2</v>
+      <c r="C4" s="6">
+        <v>0.1</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>3</v>
+      <c r="D4" s="6">
+        <v>0.1</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>4</v>
+      <c r="E4" s="6">
+        <v>0.1</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>5</v>
+      <c r="F4" s="6">
+        <v>0.1</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>6</v>
+      <c r="G4" s="6">
+        <v>0.1</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>7</v>
+      <c r="H4" s="6">
+        <v>0.1</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>8</v>
+      <c r="I4" s="6">
+        <v>0.1</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>9</v>
+      <c r="J4" s="6">
+        <v>0.1</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>10</v>
+      <c r="K4" s="6">
+        <v>0.1</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>11</v>
+      <c r="L4" s="6">
+        <v>0.1</v>
       </c>
-      <c r="M20" s="2" t="s">
-        <v>12</v>
+      <c r="M4" s="6">
+        <v>0.1</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>13</v>
+      <c r="N4" s="6">
+        <v>0.1</v>
       </c>
-      <c r="O20" s="2" t="s">
-        <v>14</v>
+      <c r="O4" s="6">
+        <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0.23827569482692007</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0.73266191809570513</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.38207845618475167</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.58096827291802333</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0.17199617865386554</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0.31017707550583584</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0.29350979429202129</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0.53016498316498317</v>
-      </c>
-      <c r="J21" s="4">
-        <v>-3.277118036614235E-2</v>
-      </c>
-      <c r="K21" s="4">
-        <v>5.3331548176908999E-3</v>
-      </c>
-      <c r="L21" s="4">
-        <v>1</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0.50266657740884546</v>
-      </c>
-      <c r="N21" s="4">
-        <v>5.3331548176908999E-3</v>
-      </c>
-      <c r="O21" s="4">
-        <v>1.0609726322331476E-2</v>
-      </c>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
     </row>
-    <row r="24" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="S24" s="5"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>